--- a/Nanazono_Familiar/Assets/Resources/NameListKatakana.xlsx
+++ b/Nanazono_Familiar/Assets/Resources/NameListKatakana.xlsx
@@ -374,10 +374,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ロ,ニー</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ホ,ラ,ケ</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -686,6 +682,10 @@
   </si>
   <si>
     <t>ハ,ロ,チ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ロ,ニ,ー</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1035,7 +1035,7 @@
   <dimension ref="A1:H61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -1375,7 +1375,7 @@
     <row r="17" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="1"/>
       <c r="B17" s="1" t="s">
-        <v>87</v>
+        <v>165</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1" t="s">
@@ -1393,7 +1393,7 @@
     <row r="18" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="1"/>
       <c r="B18" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1" t="s">
@@ -1401,7 +1401,7 @@
       </c>
       <c r="E18" s="1"/>
       <c r="F18" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G18" s="1"/>
       <c r="H18" s="1" t="s">
@@ -1411,7 +1411,7 @@
     <row r="19" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="1"/>
       <c r="B19" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1" t="s">
@@ -1419,11 +1419,11 @@
       </c>
       <c r="E19" s="1"/>
       <c r="F19" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G19" s="1"/>
       <c r="H19" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -1433,11 +1433,11 @@
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E20" s="1"/>
       <c r="F20" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G20" s="1"/>
       <c r="H20" s="1" t="s">
@@ -1449,59 +1449,59 @@
         <v>9</v>
       </c>
       <c r="D21" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F21" s="1" t="s">
         <v>96</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>97</v>
       </c>
       <c r="G21" s="1"/>
       <c r="H21" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B22" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D22" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F22" s="1" t="s">
         <v>99</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>100</v>
       </c>
       <c r="G22" s="1"/>
       <c r="H22" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B23" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D23" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F23" s="1" t="s">
         <v>103</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>104</v>
       </c>
       <c r="G23" s="1"/>
       <c r="H23" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B24" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>35</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G24" s="1"/>
       <c r="H24" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -1512,11 +1512,11 @@
         <v>80</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G25" s="1"/>
       <c r="H25" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -1524,29 +1524,29 @@
         <v>55</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G26" s="1"/>
       <c r="H26" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B27" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G27" s="1"/>
       <c r="H27" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -1554,27 +1554,27 @@
         <v>76</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>37</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B29" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>74</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -1582,119 +1582,119 @@
         <v>83</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>53</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B31" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D31" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F31" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="F31" s="1" t="s">
-        <v>126</v>
-      </c>
       <c r="H31" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B32" s="1"/>
       <c r="D32" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="F32" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="F32" s="1" t="s">
-        <v>129</v>
-      </c>
       <c r="H32" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B33" s="1"/>
       <c r="D33" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="F33" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="F33" s="1" t="s">
-        <v>132</v>
-      </c>
       <c r="H33" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B34" s="1"/>
       <c r="D34" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B35" s="3"/>
       <c r="D35" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="D36" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="37" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="D37" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="38" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="D38" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="39" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="D39" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F39" s="1" t="s">
         <v>69</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="40" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -1702,7 +1702,7 @@
         <v>84</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H40" s="1" t="s">
         <v>54</v>
@@ -1710,34 +1710,34 @@
     </row>
     <row r="41" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="D41" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="F41" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="F41" s="1" t="s">
-        <v>149</v>
-      </c>
       <c r="H41" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="42" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="F42" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="43" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="F43" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="44" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="F44" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H44" s="1" t="s">
         <v>70</v>
@@ -1748,20 +1748,20 @@
         <v>50</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="46" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="F46" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="47" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="H47" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="48" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -1771,32 +1771,32 @@
     </row>
     <row r="49" spans="8:8" x14ac:dyDescent="0.55000000000000004">
       <c r="H49" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="50" spans="8:8" x14ac:dyDescent="0.55000000000000004">
       <c r="H50" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="51" spans="8:8" x14ac:dyDescent="0.55000000000000004">
       <c r="H51" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="52" spans="8:8" x14ac:dyDescent="0.55000000000000004">
       <c r="H52" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="53" spans="8:8" x14ac:dyDescent="0.55000000000000004">
       <c r="H53" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="54" spans="8:8" x14ac:dyDescent="0.55000000000000004">
       <c r="H54" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="55" spans="8:8" x14ac:dyDescent="0.55000000000000004">
@@ -1806,36 +1806,37 @@
     </row>
     <row r="56" spans="8:8" x14ac:dyDescent="0.55000000000000004">
       <c r="H56" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="57" spans="8:8" x14ac:dyDescent="0.55000000000000004">
       <c r="H57" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="58" spans="8:8" x14ac:dyDescent="0.55000000000000004">
       <c r="H58" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="59" spans="8:8" x14ac:dyDescent="0.55000000000000004">
       <c r="H59" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="60" spans="8:8" x14ac:dyDescent="0.55000000000000004">
       <c r="H60" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="61" spans="8:8" x14ac:dyDescent="0.55000000000000004">
       <c r="H61" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>